--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-contact</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour décrire la personne ou le service qui agit comme point de contact de l'offre.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -276,6 +276,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -300,25 +303,25 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.extension:nom</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>Extension.extension:nom.id</t>
+    <t>Extension.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Extension.extension:name.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:nom.extension</t>
+    <t>Extension.extension:name.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:nom.url</t>
+    <t>Extension.extension:name.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -343,7 +346,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:nom.value[x]</t>
+    <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -362,41 +365,54 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:FonctionContact</t>
-  </si>
-  <si>
-    <t>FonctionContact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-contact-fonction-contact}
+    <t>Extension.extension:ror-function-contact</t>
+  </si>
+  <si>
+    <t>ror-function-contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-function-contact}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui indique un titre, une position ou une fonction de la personne assurant le contact au sein de l'organisation (directeur, secrétaire, etc.).</t>
   </si>
   <si>
-    <t>Extension.extension:natureContact</t>
-  </si>
-  <si>
-    <t>natureContact</t>
-  </si>
-  <si>
-    <t>Extension.extension:natureContact.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:natureContact.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:natureContact.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:natureContact.value[x]</t>
+    <t>Extension.extension:purposeContact</t>
+  </si>
+  <si>
+    <t>purposeContact</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -421,14 +437,74 @@
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-confidentiality-level}
+    <t>Extension.extension:ror-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour définir le niveau de restriction de l'accès aux attributs de la classe Contact.</t>
+  </si>
+  <si>
+    <t>Extension.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Extension.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Extension.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
+  </si>
+  <si>
+    <t>Extension.extension:telecomAddress</t>
+  </si>
+  <si>
+    <t>telecomAddress</t>
+  </si>
+  <si>
+    <t>Extension.extension:telecomAddress.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:telecomAddress.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:telecomAddress.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:telecomAddress.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -735,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -744,9 +820,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1114,7 +1190,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>75</v>
@@ -1129,13 +1205,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1174,19 +1250,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1198,7 +1274,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1206,13 +1282,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
@@ -1234,13 +1310,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1291,7 +1367,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1303,7 +1379,7 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1311,10 +1387,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1414,10 +1490,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1440,13 +1516,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1485,19 +1561,19 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -1509,7 +1585,7 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1517,10 +1593,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1543,16 +1619,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1560,7 +1636,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>73</v>
@@ -1602,7 +1678,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1617,15 +1693,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1651,10 +1727,10 @@
         <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1705,7 +1781,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1717,21 +1793,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>73</v>
@@ -1753,13 +1829,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1810,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1822,7 +1898,7 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -1830,13 +1906,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
@@ -1858,13 +1934,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1915,7 +1991,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -1927,7 +2003,7 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>73</v>
@@ -1935,10 +2011,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2038,10 +2114,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2064,13 +2140,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2109,19 +2185,19 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2133,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -2141,10 +2217,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2167,16 +2243,16 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2184,7 +2260,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -2226,7 +2302,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2241,15 +2317,15 @@
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2272,13 +2348,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2305,29 +2381,29 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2339,21 +2415,21 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>73</v>
@@ -2375,13 +2451,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2408,13 +2484,11 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -2432,32 +2506,34 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>73</v>
       </c>
@@ -2478,13 +2554,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2535,30 +2611,30 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2569,7 +2645,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2581,13 +2657,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2626,42 +2702,42 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2669,10 +2745,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2684,24 +2760,22 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -2731,42 +2805,42 @@
         <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2774,7 +2848,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -2789,22 +2863,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -2846,40 +2922,38 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -2894,13 +2968,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2951,32 +3025,34 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>73</v>
       </c>
@@ -2997,24 +3073,22 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>73</v>
@@ -3056,41 +3130,43 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3102,13 +3178,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3159,22 +3235,959 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>106</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
